--- a/metadata/LocationData.xlsx
+++ b/metadata/LocationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Papers/OC_Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C8470-FC97-E54F-A931-F263DFCB0ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE104E2A-7483-BC48-92C9-283D5C65013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="40600" windowHeight="15980" xr2:uid="{AB725DBE-B124-9849-85C4-4DA475F6BAAD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{AB725DBE-B124-9849-85C4-4DA475F6BAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -166,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,13 +252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,19 +264,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +590,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,22 +652,22 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>2.11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -686,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -694,22 +684,22 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8">
         <v>152</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2.1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -726,22 +716,22 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>54.6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>2.08</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1.81</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -758,22 +748,22 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>84</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1.95</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>2.46</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -790,22 +780,22 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>6.76</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1.99</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>2.27</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -822,22 +812,22 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>12.7</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>1.97</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -854,22 +844,22 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>2.08</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -886,22 +876,22 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1.51</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.43</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -918,22 +908,22 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8">
         <v>21.6</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1.84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>1.77</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -950,22 +940,22 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1.83</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -982,22 +972,22 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8">
         <v>21</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>1.92</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>2.02</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1014,22 +1004,22 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>13.6</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>2.08</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>1.75</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1046,22 +1036,22 @@
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1.9</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>1.41</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1078,22 +1068,22 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.95</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>2.19</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1110,22 +1100,22 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.24</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.24</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1142,22 +1132,22 @@
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1.38</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.65</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1174,22 +1164,22 @@
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1.49</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>1.3</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1206,22 +1196,22 @@
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>0.95</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.64</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1230,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -1238,22 +1228,22 @@
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>1.94</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1270,22 +1260,22 @@
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>2.12</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>2.13</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1302,22 +1292,22 @@
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>24.4</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>1.99</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1334,22 +1324,22 @@
       <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>84.6</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>2.09</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>1.77</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1366,22 +1356,22 @@
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>48</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>1.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1398,22 +1388,22 @@
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8">
         <v>13</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>1.69</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>0.88</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1430,22 +1420,22 @@
       <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="8">
         <v>38.6</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>2.12</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1462,22 +1452,22 @@
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="8">
         <v>24.4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>1.89</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>1.67</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1486,31 +1476,31 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="10">
-        <v>55.4</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1.57</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1526,22 +1516,22 @@
       <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2.29</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="G29" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1558,22 +1548,22 @@
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="10">
-        <v>13.9</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.71</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="G30" s="8">
+        <v>42</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1590,22 +1580,22 @@
       <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="10">
-        <v>42</v>
-      </c>
-      <c r="H31" s="5">
-        <v>2.04</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="G31" s="8">
+        <v>120</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1622,22 +1612,22 @@
       <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="10">
-        <v>120</v>
-      </c>
-      <c r="H32" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="I32" s="5">
-        <v>2.37</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="G32" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1646,30 +1636,30 @@
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="10">
-        <v>25.6</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1.74</v>
-      </c>
-      <c r="J33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1686,22 +1676,22 @@
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="10">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H34" s="5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I34" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="8">
+        <v>56.8</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1718,22 +1708,22 @@
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="10">
-        <v>56.8</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2.06</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="E35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1742,30 +1732,30 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="10">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="5">
-        <v>1.91</v>
-      </c>
-      <c r="I36" s="5">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="H36" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1782,54 +1772,54 @@
       <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.88</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="F37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
-        <v>2010</v>
+        <v>1952</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="10">
-        <v>17.8</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1.92</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="J38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-4.05</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1846,22 +1836,22 @@
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="I39" s="5">
-        <v>-4.05</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1870,31 +1860,31 @@
         <v>14</v>
       </c>
       <c r="B40" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>38</v>
+      <c r="H40" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>-7</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1902,31 +1892,31 @@
         <v>14</v>
       </c>
       <c r="B41" s="2">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <v>0</v>
       </c>
-      <c r="H41" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="I41" s="5">
-        <v>-7</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>40</v>
+      <c r="H41" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1934,30 +1924,30 @@
         <v>14</v>
       </c>
       <c r="B42" s="2">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>0</v>
       </c>
-      <c r="H42" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="J42" s="9" t="s">
+      <c r="H42" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1966,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="2">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -1974,22 +1964,22 @@
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <v>0</v>
       </c>
-      <c r="H43" s="5">
-        <v>1.18</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J43" s="9" t="s">
+      <c r="H43" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1998,30 +1988,30 @@
         <v>14</v>
       </c>
       <c r="B44" s="2">
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1.64</v>
-      </c>
-      <c r="I44" s="5">
-        <v>1.76</v>
-      </c>
-      <c r="J44" s="9" t="s">
+      <c r="G44" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2038,23 +2028,23 @@
       <c r="D45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="10">
-        <v>17.8</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1.99</v>
-      </c>
-      <c r="I45" s="8">
-        <v>1.77</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>38</v>
+      <c r="G45" s="8">
+        <v>55.4</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2070,22 +2060,22 @@
       <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <v>74.2</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="2">
         <v>2.13</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2093,7 +2083,7 @@
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>2011</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2102,28 +2092,28 @@
       <c r="D47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="8">
         <v>15.9</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="2">
         <v>1.98</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="2">
         <v>0.94</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="7" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="B2:B37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metadata/LocationData.xlsx
+++ b/metadata/LocationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/github_copy/Old_Collections_Figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442EAC84-0C49-CA46-8A09-9FDA96158C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A215A8-1083-314D-92BF-1B5D1ECDDDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="500" windowWidth="16380" windowHeight="21100"/>
+    <workbookView xWindow="34920" yWindow="500" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocationData" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Sample ID</t>
   </si>
   <si>
-    <t>Museum ID</t>
-  </si>
-  <si>
     <t>Storage Type</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>260/230</t>
   </si>
   <si>
-    <t>Galbut</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -527,12 +521,18 @@
   </si>
   <si>
     <t>Kauai1952_2_sim</t>
+  </si>
+  <si>
+    <t>Museum Accession</t>
+  </si>
+  <si>
+    <t>Galbut virus RT-qPCR Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1010,15 +1010,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1078,9 +1072,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1118,7 +1112,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1224,7 +1218,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1366,18 +1360,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="N4" sqref="N4:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1379,7 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1408,66 +1402,66 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1896</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>1004284</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1004284</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1479,7 +1473,7 @@
         <v>2.1</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>-87.678016999999997</v>
@@ -1490,34 +1484,34 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1908</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
       </c>
       <c r="K3">
         <v>152</v>
@@ -1529,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>-73.756232999999995</v>
@@ -1540,34 +1534,34 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1908</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1004277</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>1004277</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>54.6</v>
@@ -1578,8 +1572,8 @@
       <c r="M4">
         <v>1.8</v>
       </c>
-      <c r="N4" t="s">
-        <v>31</v>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O4">
         <v>-87.678016999999997</v>
@@ -1590,34 +1584,34 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1915</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>1004279</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1004279</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>84</v>
@@ -1628,8 +1622,8 @@
       <c r="M5">
         <v>2.5</v>
       </c>
-      <c r="N5" t="s">
-        <v>31</v>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O5">
         <v>-87.678016999999997</v>
@@ -1640,34 +1634,34 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1915</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>1004280</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1004280</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>6.8</v>
@@ -1678,8 +1672,8 @@
       <c r="M6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N6" t="s">
-        <v>22</v>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O6">
         <v>-87.678016999999997</v>
@@ -1690,34 +1684,34 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1915</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1004281</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1004281</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>12.7</v>
@@ -1728,8 +1722,8 @@
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>31</v>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O7">
         <v>-87.678016999999997</v>
@@ -1740,34 +1734,34 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1915</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1004282</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1004282</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>16.899999999999999</v>
@@ -1778,8 +1772,8 @@
       <c r="M8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N8" t="s">
-        <v>22</v>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O8">
         <v>-87.678016999999997</v>
@@ -1790,34 +1784,34 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1919</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1828,8 +1822,8 @@
       <c r="M9">
         <v>0.4</v>
       </c>
-      <c r="N9" t="s">
-        <v>22</v>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O9">
         <v>-93.089957999999996</v>
@@ -1840,34 +1834,34 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1919</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>21.6</v>
@@ -1878,8 +1872,8 @@
       <c r="M10">
         <v>1.8</v>
       </c>
-      <c r="N10" t="s">
-        <v>22</v>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O10">
         <v>-93.089957999999996</v>
@@ -1890,34 +1884,34 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1919</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>18.899999999999999</v>
@@ -1928,8 +1922,8 @@
       <c r="M11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N11" t="s">
-        <v>31</v>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O11">
         <v>-93.089957999999996</v>
@@ -1940,34 +1934,34 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1927</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>139</v>
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -1978,8 +1972,8 @@
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
-        <v>22</v>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O12">
         <v>-73.756232999999995</v>
@@ -1990,34 +1984,34 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1930</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>1004283</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1004283</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>13.6</v>
@@ -2028,8 +2022,8 @@
       <c r="M13">
         <v>1.8</v>
       </c>
-      <c r="N13" t="s">
-        <v>31</v>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O13">
         <v>-87.678016999999997</v>
@@ -2040,34 +2034,34 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1942</v>
       </c>
       <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
       </c>
       <c r="G14">
         <v>1004278</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>1004278</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <v>10.199999999999999</v>
@@ -2078,8 +2072,8 @@
       <c r="M14">
         <v>1.4</v>
       </c>
-      <c r="N14" t="s">
-        <v>31</v>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O14">
         <v>-74.405663000000004</v>
@@ -2090,34 +2084,34 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1950</v>
       </c>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>157</v>
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2128,8 +2122,8 @@
       <c r="M15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N15" t="s">
-        <v>22</v>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O15">
         <v>-158.04135299999999</v>
@@ -2140,34 +2134,34 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1950</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
       <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2178,8 +2172,8 @@
       <c r="M16">
         <v>0.2</v>
       </c>
-      <c r="N16" t="s">
-        <v>22</v>
+      <c r="N16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O16">
         <v>-158.04135299999999</v>
@@ -2190,34 +2184,34 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1951</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2228,8 +2222,8 @@
       <c r="M17">
         <v>0.7</v>
       </c>
-      <c r="N17" t="s">
-        <v>22</v>
+      <c r="N17" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O17">
         <v>-157.848782</v>
@@ -2240,34 +2234,34 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1951</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>160</v>
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2278,8 +2272,8 @@
       <c r="M18">
         <v>1.3</v>
       </c>
-      <c r="N18" t="s">
-        <v>22</v>
+      <c r="N18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O18">
         <v>-158.04135299999999</v>
@@ -2290,34 +2284,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>1952</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>166</v>
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2328,8 +2322,8 @@
       <c r="M19">
         <v>0.6</v>
       </c>
-      <c r="N19" t="s">
-        <v>22</v>
+      <c r="N19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O19">
         <v>-159.499054</v>
@@ -2340,34 +2334,34 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1953</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2378,8 +2372,8 @@
       <c r="M20">
         <v>1.9</v>
       </c>
-      <c r="N20" t="s">
-        <v>31</v>
+      <c r="N20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O20">
         <v>-159.499054</v>
@@ -2390,34 +2384,34 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>1963</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>153</v>
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <v>66.400000000000006</v>
@@ -2428,8 +2422,8 @@
       <c r="M21">
         <v>2.1</v>
       </c>
-      <c r="N21" t="s">
-        <v>22</v>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O21">
         <v>-76.652816999999999</v>
@@ -2440,34 +2434,34 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>1963</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>154</v>
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K22">
         <v>24.4</v>
@@ -2478,8 +2472,8 @@
       <c r="M22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N22" t="s">
-        <v>31</v>
+      <c r="N22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O22">
         <v>-76.652816999999999</v>
@@ -2490,146 +2484,146 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
       </c>
       <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>1.7</v>
+      </c>
+      <c r="M23">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23">
-        <v>84.6</v>
-      </c>
-      <c r="L23">
-        <v>2.1</v>
-      </c>
-      <c r="M23">
-        <v>1.8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
       <c r="O23">
-        <v>-76.652816999999999</v>
+        <v>-94.142052000000007</v>
       </c>
       <c r="P23">
-        <v>40.298022000000003</v>
+        <v>45.497914000000002</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>1963</v>
+        <v>1969</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>156</v>
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
       </c>
       <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24">
+        <v>38.6</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24">
-        <v>48</v>
-      </c>
-      <c r="L24">
-        <v>2.1</v>
-      </c>
-      <c r="M24">
-        <v>1.5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
       <c r="O24">
-        <v>-76.652816999999999</v>
+        <v>-94.142052000000007</v>
       </c>
       <c r="P24">
-        <v>40.298022000000003</v>
+        <v>45.497914000000002</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>1968</v>
+        <v>1991</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
         <v>135</v>
       </c>
       <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>24.4</v>
+      </c>
+      <c r="L25">
+        <v>1.9</v>
+      </c>
+      <c r="M25">
+        <v>1.7</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25">
-        <v>13</v>
-      </c>
-      <c r="L25">
-        <v>1.7</v>
-      </c>
-      <c r="M25">
-        <v>0.9</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
       </c>
       <c r="O25">
         <v>-94.142052000000007</v>
@@ -2640,146 +2634,146 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B26">
-        <v>1969</v>
+        <v>2003</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>136</v>
+        <v>83</v>
+      </c>
+      <c r="G26">
+        <v>4908</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
       </c>
       <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>71.2</v>
+      </c>
+      <c r="L26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26">
-        <v>38.6</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
       <c r="O26">
-        <v>-94.142052000000007</v>
+        <v>-76.652816999999999</v>
       </c>
       <c r="P26">
-        <v>45.497914000000002</v>
+        <v>40.298022000000003</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
+      </c>
+      <c r="G27">
+        <v>4887</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>24.4</v>
+        <v>13.9</v>
       </c>
       <c r="L27">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="M27">
         <v>1.7</v>
       </c>
-      <c r="N27" t="s">
-        <v>22</v>
+      <c r="N27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O27">
-        <v>-94.142052000000007</v>
+        <v>-76.652816999999999</v>
       </c>
       <c r="P27">
-        <v>45.497914000000002</v>
+        <v>40.298022000000003</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>2003</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G28">
-        <v>4908</v>
-      </c>
-      <c r="H28" s="2" t="s">
+        <v>5867</v>
+      </c>
+      <c r="H28" t="s">
         <v>145</v>
       </c>
       <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>42</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28">
-        <v>71.2</v>
-      </c>
-      <c r="L28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
       </c>
       <c r="O28">
         <v>-76.652816999999999</v>
@@ -2790,46 +2784,46 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>2003</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29">
-        <v>4887</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>146</v>
+        <v>5873</v>
+      </c>
+      <c r="H29" t="s">
+        <v>141</v>
       </c>
       <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <v>120</v>
+      </c>
+      <c r="L29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M29">
+        <v>2.4</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29">
-        <v>13.9</v>
-      </c>
-      <c r="L29">
-        <v>2.1</v>
-      </c>
-      <c r="M29">
-        <v>1.7</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
       </c>
       <c r="O29">
         <v>-76.652816999999999</v>
@@ -2840,46 +2834,46 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>2003</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G30">
-        <v>5867</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>147</v>
+        <v>5863</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
       </c>
       <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>25.6</v>
+      </c>
+      <c r="L30">
+        <v>2.1</v>
+      </c>
+      <c r="M30">
+        <v>1.7</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30">
-        <v>42</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>0.9</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
       </c>
       <c r="O30">
         <v>-76.652816999999999</v>
@@ -2890,146 +2884,146 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31">
-        <v>5873</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
       </c>
       <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31">
-        <v>120</v>
-      </c>
-      <c r="L31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
       <c r="O31">
-        <v>-76.652816999999999</v>
+        <v>-80.848770000000002</v>
       </c>
       <c r="P31">
-        <v>40.298022000000003</v>
+        <v>35.487330999999998</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32">
-        <v>5863</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>139</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K32">
-        <v>25.6</v>
+        <v>56.8</v>
       </c>
       <c r="L32">
         <v>2.1</v>
       </c>
       <c r="M32">
-        <v>1.7</v>
-      </c>
-      <c r="N32" t="s">
-        <v>22</v>
+        <v>2.1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O32">
-        <v>-76.652816999999999</v>
+        <v>-80.848770000000002</v>
       </c>
       <c r="P32">
-        <v>40.298022000000003</v>
+        <v>35.487330999999998</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>2006</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
         <v>140</v>
       </c>
       <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1.9</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N33" t="s">
-        <v>22</v>
       </c>
       <c r="O33">
         <v>-80.848770000000002</v>
@@ -3040,446 +3034,446 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
       </c>
       <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1.7</v>
+      </c>
+      <c r="M34">
+        <v>1.9</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34">
-        <v>56.8</v>
-      </c>
-      <c r="L34">
-        <v>2.1</v>
-      </c>
-      <c r="M34">
-        <v>2.1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>22</v>
-      </c>
       <c r="O34">
-        <v>-80.848770000000002</v>
+        <v>-80.247624999999999</v>
       </c>
       <c r="P34">
-        <v>35.487330999999998</v>
+        <v>43.501662000000003</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B35">
-        <v>2006</v>
+        <v>1952</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>142</v>
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O35">
-        <v>-80.848770000000002</v>
+        <v>-159.499054</v>
       </c>
       <c r="P35">
-        <v>35.487330999999998</v>
+        <v>21.961817</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B36">
-        <v>2010</v>
+        <v>1952</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1.9</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O36">
-        <v>-80.247624999999999</v>
+        <v>-159.499054</v>
       </c>
       <c r="P36">
-        <v>43.501662000000003</v>
+        <v>21.961817</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B37">
-        <v>2010</v>
+        <v>1953</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K37">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="M37">
-        <v>1.4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>31</v>
+        <v>-7</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O37">
-        <v>-80.247624999999999</v>
+        <v>-159.40781200000001</v>
       </c>
       <c r="P37">
-        <v>43.501662000000003</v>
+        <v>22.205821</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38">
-        <v>1952</v>
+        <v>1958</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>167</v>
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="N38" t="s">
-        <v>22</v>
+        <v>0.2</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O38">
-        <v>-159.499054</v>
+        <v>-156.29572400000001</v>
       </c>
       <c r="P38">
-        <v>21.961817</v>
+        <v>20.747778</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>161</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>22</v>
+        <v>0.8</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O39">
-        <v>-159.499054</v>
+        <v>-158.04135299999999</v>
       </c>
       <c r="P39">
-        <v>21.961817</v>
+        <v>21.472832</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>164</v>
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>153</v>
       </c>
       <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>84.6</v>
+      </c>
+      <c r="L40">
+        <v>2.1</v>
+      </c>
+      <c r="M40">
+        <v>1.8</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1.2</v>
-      </c>
-      <c r="M40">
-        <v>-7</v>
-      </c>
-      <c r="N40" t="s">
-        <v>31</v>
-      </c>
       <c r="O40">
-        <v>-159.40781200000001</v>
+        <v>-76.652816999999999</v>
       </c>
       <c r="P40">
-        <v>22.205821</v>
+        <v>40.298022000000003</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>161</v>
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
       </c>
       <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>48</v>
+      </c>
+      <c r="L41">
+        <v>2.1</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>0.2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>22</v>
-      </c>
       <c r="O41">
-        <v>-156.29572400000001</v>
+        <v>-76.652816999999999</v>
       </c>
       <c r="P41">
-        <v>20.747778</v>
+        <v>40.298022000000003</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
         <v>118</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>163</v>
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>160</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M42">
-        <v>0.8</v>
-      </c>
-      <c r="N42" t="s">
-        <v>22</v>
+        <v>1.8</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O42">
         <v>-158.04135299999999</v>
@@ -3490,66 +3484,66 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43">
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>162</v>
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="L43">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>1.8</v>
       </c>
-      <c r="N43" t="s">
-        <v>22</v>
+      <c r="N43" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O43">
-        <v>-158.04135299999999</v>
+        <v>-119.68523399999999</v>
       </c>
       <c r="P43">
-        <v>21.472832</v>
+        <v>34.399681999999999</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44">
         <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>123</v>
@@ -3558,28 +3552,28 @@
         <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K44">
-        <v>17.8</v>
+        <v>55.4</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>1.8</v>
-      </c>
-      <c r="N44" t="s">
-        <v>31</v>
+        <v>1.6</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O44">
         <v>-119.68523399999999</v>
@@ -3590,84 +3584,84 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
       </c>
       <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45">
+        <v>17.8</v>
+      </c>
+      <c r="L45">
+        <v>1.9</v>
+      </c>
+      <c r="M45">
+        <v>1.4</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45">
-        <v>55.4</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
-        <v>1.6</v>
-      </c>
-      <c r="N45" t="s">
-        <v>31</v>
-      </c>
       <c r="O45">
-        <v>-119.68523399999999</v>
+        <v>-80.247624999999999</v>
       </c>
       <c r="P45">
-        <v>34.399681999999999</v>
+        <v>43.501662000000003</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>2011</v>
       </c>
       <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
         <v>127</v>
       </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>128</v>
       </c>
-      <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>130</v>
+      <c r="H46" t="s">
+        <v>128</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K46">
         <v>74.2</v>
@@ -3678,8 +3672,8 @@
       <c r="M46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N46" t="s">
-        <v>22</v>
+      <c r="N46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O46">
         <v>-119.272977</v>
@@ -3690,34 +3684,34 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>2011</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
         <v>131</v>
       </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>133</v>
+      <c r="H47" t="s">
+        <v>131</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K47">
         <v>15.9</v>
@@ -3728,8 +3722,8 @@
       <c r="M47">
         <v>0.9</v>
       </c>
-      <c r="N47" t="s">
-        <v>31</v>
+      <c r="N47" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O47">
         <v>-119.272977</v>
